--- a/analysis/metadata/P04_3/P04_3_mapping.xlsx
+++ b/analysis/metadata/P04_3/P04_3_mapping.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,4572 +372,4440 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>012</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MFD04065</t>
+          <t>MFD04000</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>013</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MFD04012</t>
+          <t>MFD04001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>022</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MFD04083</t>
+          <t>MFD04002</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>023</t>
+          <t>GR6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MFD04171</t>
+          <t>MFD04005</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>024</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MFD04073</t>
+          <t>MFD04006</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>026</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MFD04053</t>
+          <t>MFD04007</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>034</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MFD04062</t>
+          <t>MFD04008</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>035</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MFD04039</t>
+          <t>MFD04009</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>049</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MFD04038</t>
+          <t>MFD04010</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>053</t>
+          <t>798</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MFD04093</t>
+          <t>MFD04011</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>055</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MFD04106</t>
+          <t>MFD04012</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>069</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MFD04015</t>
+          <t>MFD04013</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>072</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MFD04036</t>
+          <t>MFD04015</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>073</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MFD04096</t>
+          <t>MFD04016</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>081</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MFD04086</t>
+          <t>MFD04017</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>084</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MFD04082</t>
+          <t>MFD04018</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>087</t>
+          <t>733</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MFD04129</t>
+          <t>MFD04019</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>090</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MFD04007</t>
+          <t>MFD04021</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>097</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MFD04113</t>
+          <t>MFD04022</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>098</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MFD04101</t>
+          <t>MFD04023</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>783</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MFD04071</t>
+          <t>MFD04024</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MFD04090</t>
+          <t>MFD04025</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MFD04009</t>
+          <t>MFD04026</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>827</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MFD04174</t>
+          <t>MFD04027</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>768</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MFD04008</t>
+          <t>MFD04028</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MFD04033</t>
+          <t>MFD04029</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MFD04147</t>
+          <t>MFD04030</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MFD04160</t>
+          <t>MFD04031</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MFD04157</t>
+          <t>MFD04033</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MFD04066</t>
+          <t>MFD04034</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>822</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MFD04023</t>
+          <t>MFD04035</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MFD04043</t>
+          <t>MFD04036</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MFD04030</t>
+          <t>MFD04037</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MFD04142</t>
+          <t>MFD04038</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MFD04041</t>
+          <t>MFD04039</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>869</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MFD04134</t>
+          <t>MFD04040</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MFD04111</t>
+          <t>MFD04041</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>861</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MFD04149</t>
+          <t>MFD04042</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MFD04172</t>
+          <t>MFD04043</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MFD04100</t>
+          <t>MFD04045</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MFD04049</t>
+          <t>MFD04046</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MFD04098</t>
+          <t>MFD04047</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MFD04031</t>
+          <t>MFD04048</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MFD04158</t>
+          <t>MFD04049</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>704</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MFD04045</t>
+          <t>MFD04050</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>582</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MFD04117</t>
+          <t>MFD04051</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MFD04173</t>
+          <t>MFD04052</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MFD04017</t>
+          <t>MFD04053</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MFD04131</t>
+          <t>MFD04054</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>742</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MFD04127</t>
+          <t>MFD04055</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MFD04143</t>
+          <t>MFD04057</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>761</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MFD04087</t>
+          <t>MFD04058</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MFD04064</t>
+          <t>MFD04059</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MFD04104</t>
+          <t>MFD04060</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>842</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MFD04102</t>
+          <t>MFD04061</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MFD04026</t>
+          <t>MFD04062</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MFD04092</t>
+          <t>MFD04063</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MFD04099</t>
+          <t>MFD04064</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MFD04155</t>
+          <t>MFD04065</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MFD04000</t>
+          <t>MFD04066</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>854</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MFD04059</t>
+          <t>MFD04067</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MFD04122</t>
+          <t>MFD04068</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>781</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MFD04167</t>
+          <t>MFD04070</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MFD04118</t>
+          <t>MFD04071</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MFD04145</t>
+          <t>MFD04072</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MFD04025</t>
+          <t>MFD04073</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>801</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MFD04054</t>
+          <t>MFD04074</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>604</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MFD04110</t>
+          <t>MFD04075</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MFD04123</t>
+          <t>MFD04076</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>712</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MFD04124</t>
+          <t>MFD04077</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>726</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MFD04022</t>
+          <t>MFD04078</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MFD04170</t>
+          <t>MFD04079</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>724</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MFD04125</t>
+          <t>MFD04080</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MFD04006</t>
+          <t>MFD04082</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MFD04126</t>
+          <t>MFD04083</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>868</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MFD04029</t>
+          <t>MFD04084</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MFD04091</t>
+          <t>MFD04085</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>81</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MFD04097</t>
+          <t>MFD04086</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MFD04060</t>
+          <t>MFD04087</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>721</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MFD04133</t>
+          <t>MFD04088</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MFD04076</t>
+          <t>MFD04089</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MFD04138</t>
+          <t>MFD04090</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MFD04002</t>
+          <t>MFD04091</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MFD04136</t>
+          <t>MFD04092</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MFD04046</t>
+          <t>MFD04093</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>760</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MFD04021</t>
+          <t>MFD04094</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>819</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MFD04037</t>
+          <t>MFD04095</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MFD04047</t>
+          <t>MFD04096</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MFD04114</t>
+          <t>MFD04097</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MFD04108</t>
+          <t>MFD04098</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MFD04051</t>
+          <t>MFD04099</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MFD04121</t>
+          <t>MFD04100</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>98</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MFD04156</t>
+          <t>MFD04101</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MFD04139</t>
+          <t>MFD04102</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>782</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MFD04151</t>
+          <t>MFD04103</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MFD04164</t>
+          <t>MFD04104</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MFD04075</t>
+          <t>MFD04106</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MFD04153</t>
+          <t>MFD04107</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MFD04072</t>
+          <t>MFD04108</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>769</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MFD04154</t>
+          <t>MFD04109</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MFD04159</t>
+          <t>MFD04110</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MFD04148</t>
+          <t>MFD04111</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MFD04010</t>
+          <t>MFD04112</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>97</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MFD04048</t>
+          <t>MFD04113</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MFD04013</t>
+          <t>MFD04114</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>729</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MFD04018</t>
+          <t>MFD04115</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MFD04169</t>
+          <t>MFD04116</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MFD04089</t>
+          <t>MFD04117</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MFD04119</t>
+          <t>MFD04118</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MFD04146</t>
+          <t>MFD04119</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>855</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MFD04016</t>
+          <t>MFD04120</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MFD04050</t>
+          <t>MFD04121</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MFD04077</t>
+          <t>MFD04122</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MFD04052</t>
+          <t>MFD04123</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MFD04088</t>
+          <t>MFD04124</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MFD04080</t>
+          <t>MFD04125</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MFD04078</t>
+          <t>MFD04126</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MFD04115</t>
+          <t>MFD04127</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>87</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MFD04019</t>
+          <t>MFD04129</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>874</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MFD04001</t>
+          <t>MFD04130</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MFD04034</t>
+          <t>MFD04131</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>811</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MFD04055</t>
+          <t>MFD04132</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MFD04063</t>
+          <t>MFD04133</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MFD04068</t>
+          <t>MFD04134</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MFD04085</t>
+          <t>MFD04135</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MFD04094</t>
+          <t>MFD04136</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MFD04058</t>
+          <t>MFD04137</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MFD04057</t>
+          <t>MFD04138</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MFD04162</t>
+          <t>MFD04139</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>876</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MFD04028</t>
+          <t>MFD04140</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>808</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MFD04109</t>
+          <t>MFD04141</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MFD04079</t>
+          <t>MFD04142</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MFD04112</t>
+          <t>MFD04143</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>GR4</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MFD04168</t>
+          <t>MFD04144</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MFD04070</t>
+          <t>MFD04145</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MFD04103</t>
+          <t>MFD04146</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MFD04024</t>
+          <t>MFD04147</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MFD04107</t>
+          <t>MFD04148</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MFD04150</t>
+          <t>MFD04149</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MFD04116</t>
+          <t>MFD04150</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MFD04011</t>
+          <t>MFD04151</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>878</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MFD04074</t>
+          <t>MFD04152</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MFD04141</t>
+          <t>MFD04153</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MFD04132</t>
+          <t>MFD04154</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MFD04137</t>
+          <t>MFD04155</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MFD04095</t>
+          <t>MFD04156</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MFD04135</t>
+          <t>MFD04157</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MFD04035</t>
+          <t>MFD04158</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>610</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MFD04027</t>
+          <t>MFD04159</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MFD04061</t>
+          <t>MFD04160</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>891</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MFD04166</t>
+          <t>MFD04161</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MFD04163</t>
+          <t>MFD04162</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>851</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MFD04067</t>
+          <t>MFD04163</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>602</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MFD04120</t>
+          <t>MFD04164</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>880</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MFD04042</t>
+          <t>MFD04165</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>843</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MFD04084</t>
+          <t>MFD04166</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MFD04040</t>
+          <t>MFD04167</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MFD04130</t>
+          <t>MFD04168</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MFD04140</t>
+          <t>MFD04169</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MFD04152</t>
+          <t>MFD04170</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MFD04165</t>
+          <t>MFD04171</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MFD04161</t>
+          <t>MFD04172</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>GR4</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MFD04144</t>
+          <t>MFD04173</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>GR6</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MFD04005</t>
+          <t>MFD04174</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Ikke Kvnet</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MFD04128</t>
+          <t>MFD07010</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Ikke Kvnet</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MFD04081</t>
+          <t>MFD07011</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Ikke Kvnet</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MFD04105</t>
+          <t>MFD07012</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Ikke Kvnet</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MFD04003</t>
+          <t>MFD07013</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Ikke Kvnet</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MFD04056</t>
+          <t>MFD07014</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Ikke Kvnet</t>
+          <t>712</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MFD04069</t>
+          <t>MFD07015</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Ikke Kvnet</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MFD04014</t>
+          <t>MFD07016</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Ikke Kvnet</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MFD04044</t>
+          <t>MFD07017</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Ikke Kvnet</t>
+          <t>760</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MFD04004</t>
+          <t>MFD07018</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ikke Kvnet</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MFD04020</t>
+          <t>MFD07019</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Ikke Kvnet</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MFD04032</t>
+          <t>MFD07020</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>GR4</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MFD07217</t>
+          <t>MFD07021</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MFD07216</t>
+          <t>MFD07022</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MFD07215</t>
+          <t>MFD07023</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MFD07214</t>
+          <t>MFD07024</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MFD07213</t>
+          <t>MFD07025</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MFD07212</t>
+          <t>MFD07026</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MFD07211</t>
+          <t>MFD07027</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MFD07210</t>
+          <t>MFD07028</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>Ø18</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MFD07209</t>
+          <t>MFD07030</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MFD07208</t>
+          <t>MFD07032</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MFD07207</t>
+          <t>MFD07033</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MFD07206</t>
+          <t>MFD07034</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>026</t>
+          <t>724</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MFD07205</t>
+          <t>MFD07035</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MFD07204</t>
+          <t>MFD07036</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MFD07203</t>
+          <t>MFD07037</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>769</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MFD07202</t>
+          <t>MFD07038</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>643</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MFD07201</t>
+          <t>MFD07039</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>023</t>
+          <t>729</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MFD07200</t>
+          <t>MFD07040</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MFD07199</t>
+          <t>MFD07041</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MFD07198</t>
+          <t>MFD07042</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MFD07197</t>
+          <t>MFD07043</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>709</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MFD07196</t>
+          <t>MFD07044</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>081</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>MFD07195</t>
+          <t>MFD07045</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MFD07194</t>
+          <t>MFD07046</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MFD07193</t>
+          <t>MFD07047</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>768</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>MFD07192</t>
+          <t>MFD07048</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>798</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MFD07191</t>
+          <t>MFD07049</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>761</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MFD07190</t>
+          <t>MFD07050</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>MFD07189</t>
+          <t>MFD07051</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MFD07188</t>
+          <t>MFD07052</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MFD07187</t>
+          <t>MFD07053</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>721</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>MFD07186</t>
+          <t>MFD07054</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>790</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>MFD07185</t>
+          <t>MFD07055</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>MFD07184</t>
+          <t>MFD07056</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>MFD07183</t>
+          <t>MFD07057</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>FR2</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>MFD07182</t>
+          <t>MFD07058</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>742</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>MFD07181</t>
+          <t>MFD07059</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>MFD07180</t>
+          <t>MFD07060</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>073</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>MFD07179</t>
+          <t>MFD07061</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>731</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>MFD07172</t>
+          <t>MFD07062</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>783</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>MFD07178</t>
+          <t>MFD07063</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>MFD07177</t>
+          <t>MFD07064</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MFD07176</t>
+          <t>MFD07065</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MFD07175</t>
+          <t>MFD07066</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MFD07174</t>
+          <t>MFD07067</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>072</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MFD07173</t>
+          <t>MFD07068</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>733</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MFD07171</t>
+          <t>MFD07069</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>777</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MFD07170</t>
+          <t>MFD07070</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>704</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MFD07169</t>
+          <t>MFD07071</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Ø18</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MFD07030</t>
+          <t>MFD07072</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>069</t>
+          <t>726</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MFD07168</t>
+          <t>MFD07073</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>097</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>MFD07167</t>
+          <t>MFD07074</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>035</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>MFD07166</t>
+          <t>MFD07075</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>MFD07165</t>
+          <t>MFD07076</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MFD07164</t>
+          <t>MFD07077</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>MFD07163</t>
+          <t>MFD07078</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>MFD07162</t>
+          <t>MFD07079</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>MFD07161</t>
+          <t>MFD07080</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>034</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MFD07160</t>
+          <t>MFD07081</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MFD07159</t>
+          <t>MFD07082</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MFD07158</t>
+          <t>MFD07083</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MFD07157</t>
+          <t>MFD07084</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>088</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MFD07156</t>
+          <t>MFD07085</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>064</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MFD07155</t>
+          <t>MFD07086</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MFD07154</t>
+          <t>MFD07087</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>842</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MFD07153</t>
+          <t>MFD07088</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MFD07152</t>
+          <t>MFD07089</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>MFD07151</t>
+          <t>MFD07090</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>836</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MFD07150</t>
+          <t>MFD07091</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>680</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MFD07149</t>
+          <t>MFD07092</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>024</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MFD07148</t>
+          <t>MFD07093</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>669</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MFD07147</t>
+          <t>MFD07094</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>887</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MFD07146</t>
+          <t>MFD07095</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>866</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>MFD07145</t>
+          <t>MFD07096</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>840</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MFD07144</t>
+          <t>MFD07097</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>MFD07143</t>
+          <t>MFD07098</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>880</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>MFD07142</t>
+          <t>MFD07099</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MFD07141</t>
+          <t>MFD07100</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MFD07140</t>
+          <t>MFD07101</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>032</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MFD07139</t>
+          <t>MFD07102</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MFD07138</t>
+          <t>MFD07103</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>MFD07137</t>
+          <t>MFD07104</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>MFD07136</t>
+          <t>MFD07105</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>MFD07135</t>
+          <t>MFD07106</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>800</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>MFD07134</t>
+          <t>MFD07107</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>MFD07133</t>
+          <t>MFD07108</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>819</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>MFD07132</t>
+          <t>MFD07109</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>GR1</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>MFD07131</t>
+          <t>MFD07110</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>876</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>MFD07130</t>
+          <t>MFD07111</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>782</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MFD07129</t>
+          <t>MFD07112</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MFD07128</t>
+          <t>MFD07113</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>MFD07127</t>
+          <t>MFD07114</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>MFD07126</t>
+          <t>MFD07115</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>MFD07125</t>
+          <t>MFD07116</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>811</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>MFD07124</t>
+          <t>MFD07117</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>MFD07123</t>
+          <t>MFD07118</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>MFD07122</t>
+          <t>MFD07119</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>813</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>MFD07121</t>
+          <t>MFD07120</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>MFD07120</t>
+          <t>MFD07121</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>MFD07119</t>
+          <t>MFD07122</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>MFD07118</t>
+          <t>MFD07123</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>MFD07117</t>
+          <t>MFD07124</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>663</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>MFD07116</t>
+          <t>MFD07125</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>MFD07115</t>
+          <t>MFD07126</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>888</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>MFD07114</t>
+          <t>MFD07127</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>602</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>MFD07113</t>
+          <t>MFD07128</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>MFD07112</t>
+          <t>MFD07129</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>MFD07111</t>
+          <t>MFD07130</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>GR1</t>
+          <t>540</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>MFD07110</t>
+          <t>MFD07131</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>MFD07109</t>
+          <t>MFD07132</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>MFD07108</t>
+          <t>MFD07133</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>MFD07107</t>
+          <t>MFD07134</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>MFD07106</t>
+          <t>MFD07135</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>841</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>MFD07105</t>
+          <t>MFD07136</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>852</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>MFD07104</t>
+          <t>MFD07137</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>MFD07103</t>
+          <t>MFD07138</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>MFD07102</t>
+          <t>MFD07139</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>MFD07101</t>
+          <t>MFD07140</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>MFD07100</t>
+          <t>MFD07141</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>MFD07099</t>
+          <t>MFD07142</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>843</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>MFD07098</t>
+          <t>MFD07143</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>827</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>MFD07097</t>
+          <t>MFD07144</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>838</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>MFD07096</t>
+          <t>MFD07145</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>MFD07095</t>
+          <t>MFD07146</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>MFD07094</t>
+          <t>MFD07147</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>MFD07093</t>
+          <t>MFD07148</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>757</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>MFD07092</t>
+          <t>MFD07149</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>869</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>MFD07091</t>
+          <t>MFD07150</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>MFD07090</t>
+          <t>MFD07151</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>MFD07089</t>
+          <t>MFD07152</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>642</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>MFD07088</t>
+          <t>MFD07153</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>012</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>MFD07087</t>
+          <t>MFD07154</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>MFD07086</t>
+          <t>MFD07155</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>88</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>MFD07085</t>
+          <t>MFD07156</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>MFD07084</t>
+          <t>MFD07157</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>013</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>MFD07083</t>
+          <t>MFD07158</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>505</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>MFD07082</t>
+          <t>MFD07159</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>MFD07081</t>
+          <t>MFD07160</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>049</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>MFD07080</t>
+          <t>MFD07161</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>MFD07079</t>
+          <t>MFD07162</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>673</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>MFD07078</t>
+          <t>MFD07163</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>MFD07077</t>
+          <t>MFD07164</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>MFD07076</t>
+          <t>MFD07165</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>MFD07075</t>
+          <t>MFD07166</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>97</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>MFD07074</t>
+          <t>MFD07167</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>MFD07073</t>
+          <t>MFD07168</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>MFD07072</t>
+          <t>MFD07169</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>MFD07071</t>
+          <t>MFD07170</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>MFD07070</t>
+          <t>MFD07171</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>MFD07069</t>
+          <t>MFD07172</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>MFD07068</t>
+          <t>MFD07173</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>MFD07067</t>
+          <t>MFD07174</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>MFD07066</t>
+          <t>MFD07175</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>MFD07065</t>
+          <t>MFD07176</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>MFD07064</t>
+          <t>MFD07177</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>MFD07063</t>
+          <t>MFD07178</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>MFD07062</t>
+          <t>MFD07179</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>610</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>MFD07061</t>
+          <t>MFD07180</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>582</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>MFD07060</t>
+          <t>MFD07181</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>MFD07010</t>
+          <t>MFD07182</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>641</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>MFD07011</t>
+          <t>MFD07183</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>MFD07012</t>
+          <t>MFD07184</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>MFD07013</t>
+          <t>MFD07185</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>MFD07014</t>
+          <t>MFD07186</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>MFD07015</t>
+          <t>MFD07187</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>MFD07016</t>
+          <t>MFD07188</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>MFD07017</t>
+          <t>MFD07189</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>MFD07018</t>
+          <t>MFD07190</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>604</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>MFD07019</t>
+          <t>MFD07191</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>MFD07020</t>
+          <t>MFD07192</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>GR4</t>
+          <t>101</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>MFD07021</t>
+          <t>MFD07193</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>659</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>MFD07022</t>
+          <t>MFD07194</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>81</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>MFD07023</t>
+          <t>MFD07195</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>MFD07024</t>
+          <t>MFD07196</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>MFD07025</t>
+          <t>MFD07197</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>MFD07059</t>
+          <t>MFD07198</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>FR2</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>MFD07058</t>
+          <t>MFD07199</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>MFD07057</t>
+          <t>MFD07200</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>MFD07056</t>
+          <t>MFD07201</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>MFD07055</t>
+          <t>MFD07202</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MFD07054</t>
+          <t>MFD07203</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>MFD07053</t>
+          <t>MFD07204</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>MFD07052</t>
+          <t>MFD07205</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MFD07051</t>
+          <t>MFD07206</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>MFD07050</t>
+          <t>MFD07207</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MFD07049</t>
+          <t>MFD07208</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MFD07048</t>
+          <t>MFD07209</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MFD07047</t>
+          <t>MFD07210</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MFD07046</t>
+          <t>MFD07211</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MFD07045</t>
+          <t>MFD07212</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>MFD07044</t>
+          <t>MFD07213</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>MFD07043</t>
+          <t>MFD07214</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>MFD07042</t>
+          <t>MFD07215</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>MFD07041</t>
+          <t>MFD07216</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>MFD07040</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>643</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>MFD07039</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>769</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>MFD07038</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>468</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>MFD07037</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>490</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>MFD07036</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>724</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>MFD07035</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>706</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>MFD07034</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>408</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>MFD07033</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>779</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>MFD07032</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>351</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>MFD07026</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>765</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>MFD07027</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>770</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>MFD07028</t>
+          <t>MFD07217</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P04_3/P04_3_mapping.xlsx
+++ b/analysis/metadata/P04_3/P04_3_mapping.xlsx
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Kvnet Punktnr</t>
+          <t>sample_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -372,7 +372,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>397 2020</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -384,7 +384,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>738 2020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -396,7 +396,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>552 2020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -408,7 +408,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GR6</t>
+          <t>GR6 2020</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -420,7 +420,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>518 2020</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -432,7 +432,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90 2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -444,7 +444,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>119 2020</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -456,7 +456,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>106 2020</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>629 2020</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -480,7 +480,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>798 2020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13 2020</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>637 2020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -516,7 +516,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>69 2020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>698 2020</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>314 2020</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>651 2020</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -564,7 +564,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>733 2020</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>562 2020</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>494 2020</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -600,7 +600,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>157 2020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>783 2020</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>443 2020</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>389 2020</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>827 2020</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -660,7 +660,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>768 2020</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -672,7 +672,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>528 2020</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>163 2020</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>285 2020</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>127 2020</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>740 2020</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>822 2020</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -744,7 +744,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>72 2020</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -756,7 +756,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>564 2020</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49 2020</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35 2020</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -792,7 +792,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>869 2020</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>169 2020</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -816,7 +816,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>861 2020</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>161 2020</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -840,7 +840,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>297 2020</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -852,7 +852,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>561 2020</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -864,7 +864,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>570 2020</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>633 2020</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>222 2020</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -900,7 +900,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>704 2020</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -912,7 +912,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>582 2020</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -924,7 +924,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>716 2020</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -936,7 +936,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26 2020</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -948,7 +948,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>446 2020</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>742 2020</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -972,7 +972,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>763 2020</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -984,7 +984,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>761 2020</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>432 2020</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>535 2020</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1020,7 +1020,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>842 2020</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1032,7 +1032,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34 2020</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>743 2020</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1056,7 +1056,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>367 2020</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1068,7 +1068,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12 2020</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1080,7 +1080,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>151 2020</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>854 2020</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1104,7 +1104,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>747 2020</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1116,7 +1116,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>781 2020</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1128,7 +1128,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>104 2020</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>607 2020</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1152,7 +1152,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24 2020</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1164,7 +1164,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>801 2020</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>604 2020</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1188,7 +1188,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>539 2020</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1200,7 +1200,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>712 2020</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>726 2020</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1224,7 +1224,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>770 2020</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1236,7 +1236,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>724 2020</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1248,7 +1248,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>84 2020</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22 2020</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>868 2020</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1284,7 +1284,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>758 2020</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>81 2020</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1308,7 +1308,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>363 2020</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1320,7 +1320,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>721 2020</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1332,7 +1332,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>686 2020</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>105 2020</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>529 2020</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>390 2020</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1380,7 +1380,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>53 2020</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1392,7 +1392,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>760 2020</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>819 2020</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1416,7 +1416,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>73 2020</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>534 2020</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1440,7 +1440,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>271 2020</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1452,7 +1452,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>392 2020</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1464,7 +1464,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>209 2020</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>98 2020</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1488,7 +1488,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>373 2020</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>782 2020</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1512,7 +1512,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>370 2020</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1524,7 +1524,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>55 2020</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1536,7 +1536,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>786 2020</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1548,7 +1548,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>575 2020</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1560,7 +1560,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>769 2020</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1572,7 +1572,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>458 2020</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1584,7 +1584,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>181 2020</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1596,7 +1596,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>771 2020</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97 2020</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1620,7 +1620,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>573 2020</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1632,7 +1632,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>729 2020</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1644,7 +1644,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>789 2020</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1656,7 +1656,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>299 2020</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>438 2020</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1680,7 +1680,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>688 2020</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1692,7 +1692,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>855 2020</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>587 2020</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1716,7 +1716,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>433 2020</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1728,7 +1728,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>470 2020</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1740,7 +1740,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>488 2020</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1752,7 +1752,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>517 2020</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1764,7 +1764,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>525 2020</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1776,7 +1776,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>322 2020</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1788,7 +1788,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>87 2020</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>874 2020</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1812,7 +1812,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>316 2020</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1824,7 +1824,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>811 2020</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1836,7 +1836,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>537 2020</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1848,7 +1848,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>179 2020</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1860,7 +1860,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>821 2020</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1872,7 +1872,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>553 2020</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1884,7 +1884,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>818 2020</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>548 2020</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>596 2020</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1920,7 +1920,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>876 2020</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1932,7 +1932,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>808 2020</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1944,7 +1944,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>165 2020</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1956,7 +1956,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>341 2020</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1968,7 +1968,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>GR4</t>
+          <t>GR4 2020</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1980,7 +1980,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>439 2020</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -1992,7 +1992,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>690 2020</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2004,7 +2004,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>129 2020</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2016,7 +2016,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>627 2020</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2028,7 +2028,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>194 2020</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2040,7 +2040,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>788 2020</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>600 2020</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2064,7 +2064,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>878 2020</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2076,7 +2076,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>606 2020</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2088,7 +2088,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>608 2020</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2100,7 +2100,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>394 2020</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>595 2020</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2124,7 +2124,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>150 2020</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2136,7 +2136,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>286 2020</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2148,7 +2148,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>610 2020</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2160,7 +2160,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>149 2020</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2172,7 +2172,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>891 2020</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2184,7 +2184,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>765 2020</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2196,7 +2196,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>851 2020</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2208,7 +2208,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>602 2020</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2220,7 +2220,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>880 2020</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2232,7 +2232,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>843 2020</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2244,7 +2244,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>437 2020</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2256,7 +2256,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>772 2020</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2268,7 +2268,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>653 2020</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2280,7 +2280,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>499 2020</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2292,7 +2292,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23 2020</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2304,7 +2304,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>205 2020</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>306 2020</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2328,7 +2328,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>111 2020</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2340,7 +2340,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>536 2021</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2352,7 +2352,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>475 2021</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2364,7 +2364,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>595 2021</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2376,7 +2376,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>432 2021</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2388,7 +2388,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>747 2021</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2400,7 +2400,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>712 2021</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2412,7 +2412,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>788 2021</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>437 2021</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2436,7 +2436,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>760 2021</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2448,7 +2448,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>428 2021</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2460,7 +2460,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>458 2021</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2472,7 +2472,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>GR4</t>
+          <t>GR4 2021</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2484,7 +2484,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>447 2021</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2496,7 +2496,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>433 2021</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2508,7 +2508,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>600 2021</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>550 2021</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2532,7 +2532,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>351 2021</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2544,7 +2544,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>765 2021</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2556,7 +2556,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>770 2021</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2568,7 +2568,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Ø18</t>
+          <t>Ø18 2021</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2580,7 +2580,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>779 2021</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2592,7 +2592,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>408 2021</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2604,7 +2604,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>706 2021</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2616,7 +2616,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>724 2021</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2628,7 +2628,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>490 2021</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2640,7 +2640,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>468 2021</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2652,7 +2652,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>769 2021</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2664,7 +2664,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>643 2021</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2676,7 +2676,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>729 2021</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2688,7 +2688,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>499 2021</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2700,7 +2700,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>435 2021</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2712,7 +2712,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>439 2021</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>709 2021</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2736,7 +2736,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>489 2021</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2748,7 +2748,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>419 2021</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2760,7 +2760,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>518 2021</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2772,7 +2772,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>768 2021</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2784,7 +2784,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>798 2021</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2796,7 +2796,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>761 2021</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2808,7 +2808,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>750 2021</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2820,7 +2820,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>434 2021</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2832,7 +2832,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>390 2021</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2844,7 +2844,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>721 2021</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>790 2021</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -2868,7 +2868,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>411 2021</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2880,7 +2880,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>789 2021</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -2892,7 +2892,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>FR2</t>
+          <t>FR2 2021</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2904,7 +2904,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>742 2021</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2916,7 +2916,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>317 2021</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>573 2021</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -2940,7 +2940,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>731 2021</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -2952,7 +2952,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>783 2021</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -2964,7 +2964,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>535 2021</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -2976,7 +2976,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>587 2021</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -2988,7 +2988,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>716 2021</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3000,7 +3000,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>446 2021</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3012,7 +3012,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>425 2021</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3024,7 +3024,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>733 2021</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3036,7 +3036,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>777 2021</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3048,7 +3048,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>704 2021</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3060,7 +3060,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>585 2021</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3072,7 +3072,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>726 2021</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3084,7 +3084,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>739 2021</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3096,7 +3096,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>442 2021</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3108,7 +3108,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>420 2021</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3120,7 +3120,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>392 2021</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>561 2021</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3144,7 +3144,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>342 2021</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3156,7 +3156,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49 2021</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3168,7 +3168,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>370 2021</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3180,7 +3180,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>564 2021</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3192,7 +3192,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13 2021</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3204,7 +3204,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>354 2021</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -3216,7 +3216,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>306 2021</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -3228,7 +3228,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>383 2021</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -3240,7 +3240,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12 2021</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -3252,7 +3252,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>842 2021</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -3264,7 +3264,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>694 2021</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -3276,7 +3276,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>818 2021</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -3288,7 +3288,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>836 2021</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3300,7 +3300,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>680 2021</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -3312,7 +3312,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>162 2021</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3324,7 +3324,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>669 2021</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>887 2021</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -3348,7 +3348,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>866 2021</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3360,7 +3360,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>840 2021</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3372,7 +3372,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>608 2021</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -3384,7 +3384,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>880 2021</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -3396,7 +3396,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>690 2021</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -3408,7 +3408,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>525 2021</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -3420,7 +3420,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>522 2021</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -3432,7 +3432,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>192 2021</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -3444,7 +3444,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>348 2021</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -3456,7 +3456,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>607 2021</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -3468,7 +3468,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>651 2021</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -3480,7 +3480,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>800 2021</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -3492,7 +3492,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>592 2021</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -3504,7 +3504,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>819 2021</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -3516,7 +3516,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>GR1</t>
+          <t>GR1 2021</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -3528,7 +3528,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>876 2021</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>782 2021</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -3552,7 +3552,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>146 2021</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -3564,7 +3564,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>569 2021</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -3576,7 +3576,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>574 2021</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -3588,7 +3588,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>552 2021</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -3600,7 +3600,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>811 2021</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -3612,7 +3612,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>584 2021</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -3624,7 +3624,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>323 2021</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -3636,7 +3636,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>813 2021</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -3648,7 +3648,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>596 2021</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -3660,7 +3660,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>394 2021</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -3672,7 +3672,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>367 2021</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -3684,7 +3684,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>786 2021</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -3696,7 +3696,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>663 2021</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -3708,7 +3708,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>151 2021</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -3720,7 +3720,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>888 2021</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -3732,7 +3732,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>602 2021</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>397 2021</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -3756,7 +3756,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>361 2021</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -3768,7 +3768,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>540 2021</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -3780,7 +3780,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>534 2021</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -3792,7 +3792,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>110 2021</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -3804,7 +3804,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>157 2021</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -3816,7 +3816,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>189 2021</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -3828,7 +3828,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>841 2021</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -3840,7 +3840,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>852 2021</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -3852,7 +3852,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>373 2021</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -3864,7 +3864,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32 2021</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -3876,7 +3876,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>627 2021</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -3888,7 +3888,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>859 2021</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -3900,7 +3900,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>676 2021</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -3912,7 +3912,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>843 2021</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -3924,7 +3924,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>827 2021</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -3936,7 +3936,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>838 2021</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -3948,7 +3948,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>570 2021</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -3960,7 +3960,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>316 2021</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -3972,7 +3972,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24 2021</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -3984,7 +3984,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>757 2021</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -3996,7 +3996,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>869 2021</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4008,7 +4008,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>821 2021</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -4020,7 +4020,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>658 2021</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -4032,7 +4032,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>642 2021</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -4044,7 +4044,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>531 2021</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -4056,7 +4056,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>64 2021</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -4068,7 +4068,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>88 2021</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -4080,7 +4080,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>593 2021</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -4092,7 +4092,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>139 2021</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -4104,7 +4104,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>505 2021</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -4116,7 +4116,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34 2021</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -4128,7 +4128,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>233 2021</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -4140,7 +4140,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>365 2021</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -4152,7 +4152,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>673 2021</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -4164,7 +4164,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>529 2021</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -4176,7 +4176,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>363 2021</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -4188,7 +4188,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35 2021</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -4200,7 +4200,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97 2021</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -4212,7 +4212,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>69 2021</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -4224,7 +4224,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>285 2021</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -4236,7 +4236,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>299 2021</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -4248,7 +4248,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>297 2021</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -4260,7 +4260,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>385 2021</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -4272,7 +4272,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>72 2021</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -4284,7 +4284,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>389 2021</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -4296,7 +4296,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>105 2021</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -4308,7 +4308,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>286 2021</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -4320,7 +4320,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>562 2021</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -4332,7 +4332,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>163 2021</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -4344,7 +4344,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>73 2021</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -4356,7 +4356,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>610 2021</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -4368,7 +4368,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>582 2021</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -4380,7 +4380,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>282 2021</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -4392,7 +4392,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>641 2021</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -4404,7 +4404,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>606 2021</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -4416,7 +4416,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>265 2021</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -4428,7 +4428,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>629 2021</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -4440,7 +4440,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>326 2021</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -4452,7 +4452,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>240 2021</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -4464,7 +4464,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>590 2021</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -4476,7 +4476,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>688 2021</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -4488,7 +4488,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>604 2021</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -4500,7 +4500,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>161 2021</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -4512,7 +4512,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>101 2021</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -4524,7 +4524,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>659 2021</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -4536,7 +4536,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>81 2021</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -4548,7 +4548,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>273 2021</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -4560,7 +4560,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>216 2021</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -4572,7 +4572,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>398 2021</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -4584,7 +4584,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>271 2021</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -4596,7 +4596,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23 2021</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -4608,7 +4608,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>237 2021</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -4620,7 +4620,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>106 2021</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -4632,7 +4632,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>149 2021</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -4644,7 +4644,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>203 2021</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -4656,7 +4656,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26 2021</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -4668,7 +4668,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>253 2021</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -4680,7 +4680,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>125 2021</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -4692,7 +4692,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>205 2021</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -4704,7 +4704,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>245 2021</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -4716,7 +4716,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>181 2021</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -4728,7 +4728,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>202 2021</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -4740,7 +4740,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>104 2021</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -4752,7 +4752,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>228 2021</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -4764,7 +4764,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>127 2021</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -4776,7 +4776,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>178 2021</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -4788,7 +4788,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>198 2021</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -4800,7 +4800,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>150 2021</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
